--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cxcl2-Cxcr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H2">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I2">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J2">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -567,22 +567,22 @@
         <v>0.036557</v>
       </c>
       <c r="O2">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P2">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q2">
-        <v>0.01338467940022222</v>
+        <v>0.08028572382677777</v>
       </c>
       <c r="R2">
-        <v>0.120462114602</v>
+        <v>0.7225715144410001</v>
       </c>
       <c r="S2">
-        <v>4.845715325763483E-07</v>
+        <v>2.165161618993619E-06</v>
       </c>
       <c r="T2">
-        <v>4.845715325763483E-07</v>
+        <v>2.165161618993618E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H3">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I3">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J3">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N3">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P3">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q3">
-        <v>0.2232360368877777</v>
+        <v>0.5355536765934444</v>
       </c>
       <c r="R3">
-        <v>2.00912433199</v>
+        <v>4.819983089341</v>
       </c>
       <c r="S3">
-        <v>8.081914051612228E-06</v>
+        <v>1.444291973966482E-05</v>
       </c>
       <c r="T3">
-        <v>8.081914051612228E-06</v>
+        <v>1.444291973966482E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H4">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I4">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J4">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N4">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O4">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P4">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q4">
-        <v>9.821801642876665</v>
+        <v>52.132496083955</v>
       </c>
       <c r="R4">
-        <v>88.39621478589</v>
+        <v>469.192464755595</v>
       </c>
       <c r="S4">
-        <v>0.0003555830761751846</v>
+        <v>0.001405919685881528</v>
       </c>
       <c r="T4">
-        <v>0.0003555830761751846</v>
+        <v>0.001405919685881527</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.098395333333333</v>
+        <v>6.588537666666667</v>
       </c>
       <c r="H5">
-        <v>3.295186</v>
+        <v>19.765613</v>
       </c>
       <c r="I5">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="J5">
-        <v>0.0003662491773237948</v>
+        <v>0.001445016320236698</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N5">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O5">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P5">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q5">
-        <v>0.05799490746822222</v>
+        <v>0.833891446857</v>
       </c>
       <c r="R5">
-        <v>0.521954167214</v>
+        <v>7.505023021713</v>
       </c>
       <c r="S5">
-        <v>2.099615564421615E-06</v>
+        <v>2.248855299651219E-05</v>
       </c>
       <c r="T5">
-        <v>2.099615564421616E-06</v>
+        <v>2.248855299651218E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I6">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J6">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -815,10 +815,10 @@
         <v>0.036557</v>
       </c>
       <c r="O6">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P6">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q6">
         <v>0.3654009279368888</v>
@@ -827,10 +827,10 @@
         <v>3.288608351431999</v>
       </c>
       <c r="S6">
-        <v>1.322877316376052E-05</v>
+        <v>9.854206040672589E-06</v>
       </c>
       <c r="T6">
-        <v>1.322877316376052E-05</v>
+        <v>9.854206040672587E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I7">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J7">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N7">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P7">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q7">
-        <v>6.09433013587111</v>
+        <v>2.437442188470222</v>
       </c>
       <c r="R7">
-        <v>54.84897122283999</v>
+        <v>21.936979696232</v>
       </c>
       <c r="S7">
-        <v>0.0002206357586657069</v>
+        <v>6.57334333358945E-05</v>
       </c>
       <c r="T7">
-        <v>0.0002206357586657069</v>
+        <v>6.573343333589449E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I8">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J8">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N8">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O8">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P8">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q8">
-        <v>268.1345833550266</v>
+        <v>237.26836524316</v>
       </c>
       <c r="R8">
-        <v>2413.21125019524</v>
+        <v>2135.415287188439</v>
       </c>
       <c r="S8">
-        <v>0.009707396203371797</v>
+        <v>0.00639870120538798</v>
       </c>
       <c r="T8">
-        <v>0.009707396203371797</v>
+        <v>0.006398701205387978</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>89.95837599999999</v>
       </c>
       <c r="I9">
-        <v>0.009998580111527728</v>
+        <v>0.006576640019309761</v>
       </c>
       <c r="J9">
-        <v>0.009998580111527726</v>
+        <v>0.00657664001930976</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N9">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O9">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P9">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q9">
-        <v>1.583257422224889</v>
+        <v>3.795253925063999</v>
       </c>
       <c r="R9">
-        <v>14.249316800024</v>
+        <v>34.15728532557599</v>
       </c>
       <c r="S9">
-        <v>5.731937632646288E-05</v>
+        <v>0.0001023511745452149</v>
       </c>
       <c r="T9">
-        <v>5.731937632646289E-05</v>
+        <v>0.0001023511745452149</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H10">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I10">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J10">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1063,22 +1063,22 @@
         <v>0.036557</v>
       </c>
       <c r="O10">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P10">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q10">
-        <v>2.436698374085444</v>
+        <v>5.439186926923556</v>
       </c>
       <c r="R10">
-        <v>21.930285366769</v>
+        <v>48.952682342312</v>
       </c>
       <c r="S10">
-        <v>8.821688067756603E-05</v>
+        <v>0.0001466850918366988</v>
       </c>
       <c r="T10">
-        <v>8.821688067756605E-05</v>
+        <v>0.0001466850918366987</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H11">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I11">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J11">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N11">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P11">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q11">
-        <v>40.64041220985055</v>
+        <v>36.28262183545689</v>
       </c>
       <c r="R11">
-        <v>365.763709888655</v>
+        <v>326.543596519112</v>
       </c>
       <c r="S11">
-        <v>0.001471323013439893</v>
+        <v>0.0009784770752529431</v>
       </c>
       <c r="T11">
-        <v>0.001471323013439894</v>
+        <v>0.0009784770752529429</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H12">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I12">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J12">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N12">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O12">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P12">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q12">
-        <v>1788.071822877578</v>
+        <v>3531.86566243756</v>
       </c>
       <c r="R12">
-        <v>16092.64640589821</v>
+        <v>31786.79096193804</v>
       </c>
       <c r="S12">
-        <v>0.06473436364519777</v>
+        <v>0.09524806667061206</v>
       </c>
       <c r="T12">
-        <v>0.0647343636451978</v>
+        <v>0.09524806667061203</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>199.9643056666667</v>
+        <v>446.3594053333334</v>
       </c>
       <c r="H13">
-        <v>599.892917</v>
+        <v>1339.078216</v>
       </c>
       <c r="I13">
-        <v>0.06667614129630968</v>
+        <v>0.0978967804435634</v>
       </c>
       <c r="J13">
-        <v>0.06667614129630969</v>
+        <v>0.09789678044356338</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N13">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O13">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P13">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q13">
-        <v>10.55804868443144</v>
+        <v>56.494370854824</v>
       </c>
       <c r="R13">
-        <v>95.02243815988301</v>
+        <v>508.449337693416</v>
       </c>
       <c r="S13">
-        <v>0.000382237756994441</v>
+        <v>0.001523551605861705</v>
       </c>
       <c r="T13">
-        <v>0.0003822377569944413</v>
+        <v>0.001523551605861704</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H14">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I14">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J14">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1311,22 +1311,22 @@
         <v>0.036557</v>
       </c>
       <c r="O14">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P14">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q14">
-        <v>0.01307277101433333</v>
+        <v>0.02830123520466667</v>
       </c>
       <c r="R14">
-        <v>0.117654939129</v>
+        <v>0.254711116842</v>
       </c>
       <c r="S14">
-        <v>4.732793738287069E-07</v>
+        <v>7.632334282426632E-07</v>
       </c>
       <c r="T14">
-        <v>4.73279373828707E-07</v>
+        <v>7.632334282426632E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H15">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I15">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J15">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N15">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P15">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q15">
-        <v>0.2180338807616666</v>
+        <v>0.1887861234046667</v>
       </c>
       <c r="R15">
-        <v>1.962304926855</v>
+        <v>1.699075110642</v>
       </c>
       <c r="S15">
-        <v>7.893578067510191E-06</v>
+        <v>5.091222313400201E-06</v>
       </c>
       <c r="T15">
-        <v>7.893578067510193E-06</v>
+        <v>5.0912223134002E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H16">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I16">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J16">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N16">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O16">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P16">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q16">
-        <v>9.592920382044998</v>
+        <v>18.37704093771</v>
       </c>
       <c r="R16">
-        <v>86.33628343840499</v>
+        <v>165.39336843939</v>
       </c>
       <c r="S16">
-        <v>0.000347296785557169</v>
+        <v>0.0004955957524260774</v>
       </c>
       <c r="T16">
-        <v>0.000347296785557169</v>
+        <v>0.0004955957524260774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.072799</v>
+        <v>2.322502</v>
       </c>
       <c r="H17">
-        <v>3.218397</v>
+        <v>6.967506</v>
       </c>
       <c r="I17">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="J17">
-        <v>0.0003577143304054367</v>
+        <v>0.0005093775680697135</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N17">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O17">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P17">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q17">
-        <v>0.05664342960033333</v>
+        <v>0.293952110634</v>
       </c>
       <c r="R17">
-        <v>0.509790866403</v>
+        <v>2.645568995706</v>
       </c>
       <c r="S17">
-        <v>2.050687406928724E-06</v>
+        <v>7.927359901993255E-06</v>
       </c>
       <c r="T17">
-        <v>2.050687406928725E-06</v>
+        <v>7.927359901993255E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H18">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I18">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J18">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1559,22 +1559,22 @@
         <v>0.036557</v>
       </c>
       <c r="O18">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P18">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q18">
-        <v>32.29358598556266</v>
+        <v>46.49507161761433</v>
       </c>
       <c r="R18">
-        <v>290.642273870064</v>
+        <v>418.4556445585289</v>
       </c>
       <c r="S18">
-        <v>0.001169139131800974</v>
+        <v>0.001253888484035087</v>
       </c>
       <c r="T18">
-        <v>0.001169139131800974</v>
+        <v>0.001253888484035087</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H19">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I19">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J19">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K19">
         <v>2</v>
@@ -1615,28 +1615,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N19">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P19">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q19">
-        <v>538.6077571788533</v>
+        <v>310.1498667685143</v>
       </c>
       <c r="R19">
-        <v>4847.46981460968</v>
+        <v>2791.348800916629</v>
       </c>
       <c r="S19">
-        <v>0.01949945744306236</v>
+        <v>0.008364184261600906</v>
       </c>
       <c r="T19">
-        <v>0.01949945744306236</v>
+        <v>0.008364184261600903</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H20">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I20">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J20">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N20">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O20">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P20">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q20">
-        <v>23697.33233073272</v>
+        <v>30190.97323277839</v>
       </c>
       <c r="R20">
-        <v>213275.9909765945</v>
+        <v>271718.7590950055</v>
       </c>
       <c r="S20">
-        <v>0.8579251173758823</v>
+        <v>0.8141962651381501</v>
       </c>
       <c r="T20">
-        <v>0.8579251173758823</v>
+        <v>0.81419626513815</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2650.128784</v>
+        <v>3815.554199</v>
       </c>
       <c r="H21">
-        <v>7950.386352</v>
+        <v>11446.662597</v>
       </c>
       <c r="I21">
-        <v>0.883659514463319</v>
+        <v>0.836837909601285</v>
       </c>
       <c r="J21">
-        <v>0.8836595144633189</v>
+        <v>0.8368379096012849</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N21">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O21">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P21">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q21">
-        <v>139.9259164189387</v>
+        <v>482.9232483048329</v>
       </c>
       <c r="R21">
-        <v>1259.333247770448</v>
+        <v>4346.309234743496</v>
       </c>
       <c r="S21">
-        <v>0.005065800512573308</v>
+        <v>0.01302357171749888</v>
       </c>
       <c r="T21">
-        <v>0.005065800512573309</v>
+        <v>0.01302357171749888</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H22">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I22">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J22">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1807,22 +1807,22 @@
         <v>0.036557</v>
       </c>
       <c r="O22">
-        <v>0.001323065176875323</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="P22">
-        <v>0.001323065176875324</v>
+        <v>0.001498364820294181</v>
       </c>
       <c r="Q22">
-        <v>1.423139078126</v>
+        <v>3.152180604796555</v>
       </c>
       <c r="R22">
-        <v>12.808251703134</v>
+        <v>28.369625443169</v>
       </c>
       <c r="S22">
-        <v>5.152254032661833E-05</v>
+        <v>8.500864333448595E-05</v>
       </c>
       <c r="T22">
-        <v>5.152254032661834E-05</v>
+        <v>8.500864333448595E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H23">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I23">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J23">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.2032383333333333</v>
+        <v>0.08128566666666666</v>
       </c>
       <c r="N23">
-        <v>0.609715</v>
+        <v>0.243857</v>
       </c>
       <c r="O23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658562</v>
       </c>
       <c r="P23">
-        <v>0.02206670909315693</v>
+        <v>0.009994987279658561</v>
       </c>
       <c r="Q23">
-        <v>23.73578912436999</v>
+        <v>21.02692523302989</v>
       </c>
       <c r="R23">
-        <v>213.62210211933</v>
+        <v>189.242327097269</v>
       </c>
       <c r="S23">
-        <v>0.0008593173858698498</v>
+        <v>0.0005670583674157547</v>
       </c>
       <c r="T23">
-        <v>0.0008593173858698499</v>
+        <v>0.0005670583674157546</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H24">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I24">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J24">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.941955</v>
+        <v>7.912604999999999</v>
       </c>
       <c r="N24">
-        <v>26.825865</v>
+        <v>23.737815</v>
       </c>
       <c r="O24">
-        <v>0.9708774741105275</v>
+        <v>0.9729438112167713</v>
       </c>
       <c r="P24">
-        <v>0.9708774741105276</v>
+        <v>0.9729438112167712</v>
       </c>
       <c r="Q24">
-        <v>1044.31262921007</v>
+        <v>2046.827694921595</v>
       </c>
       <c r="R24">
-        <v>9398.813662890629</v>
+        <v>18421.44925429436</v>
       </c>
       <c r="S24">
-        <v>0.03780771702434334</v>
+        <v>0.05519926276431356</v>
       </c>
       <c r="T24">
-        <v>0.03780771702434334</v>
+        <v>0.05519926276431356</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>116.787954</v>
+        <v>258.6793723333333</v>
       </c>
       <c r="H25">
-        <v>350.3638619999999</v>
+        <v>776.0381170000001</v>
       </c>
       <c r="I25">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="J25">
-        <v>0.03894180062111442</v>
+        <v>0.05673427604753549</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.05279966666666667</v>
+        <v>0.126567</v>
       </c>
       <c r="N25">
-        <v>0.158399</v>
+        <v>0.379701</v>
       </c>
       <c r="O25">
-        <v>0.005732751619440172</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="P25">
-        <v>0.005732751619440174</v>
+        <v>0.015562836683276</v>
       </c>
       <c r="Q25">
-        <v>6.166365041881999</v>
+        <v>32.740272118113</v>
       </c>
       <c r="R25">
-        <v>55.497285376938</v>
+        <v>294.662449063017</v>
       </c>
       <c r="S25">
-        <v>0.00022324367057461</v>
+        <v>0.0008829462724716922</v>
       </c>
       <c r="T25">
-        <v>0.0002232436705746101</v>
+        <v>0.0008829462724716921</v>
       </c>
     </row>
   </sheetData>
